--- a/data/Hellman_Top20.xlsx
+++ b/data/Hellman_Top20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unilever-my.sharepoint.com/personal/eric_yu_unilever_com/Documents/Desktop/Hellman/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{0B47F678-3370-4DF3-86E7-A59C88794FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC17538C-467A-45D1-BF45-E4FB3A134AAB}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{0B47F678-3370-4DF3-86E7-A59C88794FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FFE6188-9510-4529-A0FA-5C18C04A3102}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Walmart" sheetId="1" r:id="rId1"/>
@@ -986,11 +986,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE96"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AG1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -35343,7 +35347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11423A5-0A53-4EF3-971E-8FF2B69BDA97}">
   <dimension ref="A1:W96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
